--- a/Manuscript_items/Table_S1.xlsx
+++ b/Manuscript_items/Table_S1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrw657\Documents\GitHub\NHANES_T2D\Manuscript_items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdx120\NHANES_T2D\Manuscript_items\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="3650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="3645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -99,16 +99,6 @@
   </si>
   <si>
     <t>58%</t>
-  </si>
-  <si>
-    <t>- Sex
-- Age
-- Ethnicity
-- Fasting glucose
-- Systolic blood pressure
-- HDL-C
-- BMI
-- Family history of diabetes (parent/sibling)</t>
   </si>
   <si>
     <t>7.5-year risk</t>
@@ -202,6 +192,16 @@
   </si>
   <si>
     <t>San Antonio Model</t>
+  </si>
+  <si>
+    <t>- Age
+- Sex
+- Ethnicity
+- Fasting glucose
+- Systolic blood pressure
+- HDL-C
+- BMI
+- Family history of diabetes (parent/sibling)</t>
   </si>
 </sst>
 </file>
@@ -296,9 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -306,6 +303,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,136 +591,136 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="2"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="96.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:8" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript_items/Table_S1.xlsx
+++ b/Manuscript_items/Table_S1.xlsx
@@ -23,6 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Toinét Cronjé</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Toinét Cronjé:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consider replacing race/ethnicity with the explicit terms used in the model, i.e. black or mexican american.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
@@ -208,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +279,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,5 +776,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Manuscript_items/Table_S1.xlsx
+++ b/Manuscript_items/Table_S1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdx120\NHANES_T2D\Manuscript_items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrw657\Documents\GitHub\NHANES_T2D\Manuscript_items\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="3645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="3650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,40 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Toinét Cronjé</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Toinét Cronjé:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Consider replacing race/ethnicity with the explicit terms used in the model, i.e. black or mexican american.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
@@ -116,17 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">56% </t>
-  </si>
-  <si>
-    <t>- Age
-- Race
-- Family history of diabetes (parent)
-- Fasting glucose
-- Systolic blood pressure
-- Waist circumference
-- Height
-- HDL-C
-- Triglycerides</t>
   </si>
   <si>
     <t>2002</t>
@@ -229,8 +184,19 @@
   </si>
   <si>
     <t>- Age
+- Race (Black vs. White)
+- Family history of diabetes (parent)
+- Fasting glucose
+- Systolic blood pressure
+- Waist circumference
+- Height
+- HDL-C
+- Triglycerides</t>
+  </si>
+  <si>
+    <t>- Age
 - Sex
-- Ethnicity
+- Race (Hispanic vs. White)
 - Fasting glucose
 - Systolic blood pressure
 - HDL-C
@@ -242,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,19 +245,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -634,27 +587,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -666,7 +619,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -692,9 +645,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="96.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -703,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -715,12 +668,12 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -729,45 +682,45 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -776,6 +729,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Manuscript_items/Table_S1.xlsx
+++ b/Manuscript_items/Table_S1.xlsx
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +242,13 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,9 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -305,7 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,106 +627,106 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="96.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
